--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3385.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3385.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.332544517965371</v>
+        <v>2.27993369102478</v>
       </c>
       <c r="B1">
-        <v>2.51533415428511</v>
+        <v>5.660700798034668</v>
       </c>
       <c r="C1">
-        <v>3.196799511503994</v>
+        <v>2.35307240486145</v>
       </c>
       <c r="D1">
-        <v>3.766286042074243</v>
+        <v>1.542247653007507</v>
       </c>
       <c r="E1">
-        <v>2.182417195521771</v>
+        <v>1.268530130386353</v>
       </c>
     </row>
   </sheetData>
